--- a/Andres/data_barrio.xlsx
+++ b/Andres/data_barrio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Trabajo1TAE2020\Andres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E971798-4D12-4FBF-8091-FF0EF5B3B7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2362710-51D6-48C7-8C4A-01D3006BDFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,16 +1465,16 @@
   <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
